--- a/Horários.xlsx
+++ b/Horários.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Carlos</t>
   </si>
@@ -67,12 +67,24 @@
   </si>
   <si>
     <t>a partir das 13:30</t>
+  </si>
+  <si>
+    <t>a partir das 19:30</t>
+  </si>
+  <si>
+    <t>a partir das 18:30</t>
+  </si>
+  <si>
+    <t>até o meio dia</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,18 +463,19 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -476,7 +489,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -496,58 +509,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Horários.xlsx
+++ b/Horários.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Carlos</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>o dia todo</t>
+  </si>
+  <si>
+    <t>a partir das 18:45(pode variar de acordo com bus.. :) )</t>
   </si>
 </sst>
 </file>
@@ -463,19 +469,20 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -489,7 +496,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -518,7 +525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -529,7 +536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -540,45 +547,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>

--- a/Horários.xlsx
+++ b/Horários.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Carlos</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
@@ -532,6 +532,9 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
@@ -557,6 +560,9 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
@@ -570,6 +576,9 @@
       </c>
       <c r="C7" t="s">
         <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>

--- a/Horários.xlsx
+++ b/Horários.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Carlos</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>a partir das 18:45(pode variar de acordo com bus.. :) )</t>
+  </si>
+  <si>
+    <t>dia todo</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +481,7 @@
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
@@ -521,6 +525,9 @@
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -535,6 +542,9 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
@@ -546,6 +556,9 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
@@ -563,6 +576,9 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
@@ -580,6 +596,9 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
@@ -594,6 +613,9 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
@@ -607,6 +629,9 @@
       </c>
       <c r="C9" t="s">
         <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>

--- a/Horários.xlsx
+++ b/Horários.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17304"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+  <si>
+    <t>Agendamento da Reunião Inicial</t>
+  </si>
   <si>
     <t>Carlos</t>
   </si>
@@ -39,62 +42,65 @@
     <t>Guilherme</t>
   </si>
   <si>
-    <t>Agendamento da Reunião Inicial</t>
-  </si>
-  <si>
     <t>Segunda  25/07</t>
   </si>
   <si>
+    <t>a partir das 19:30</t>
+  </si>
+  <si>
     <t>Terça 26/07</t>
   </si>
   <si>
+    <t>a partir das 17:30</t>
+  </si>
+  <si>
+    <t>a partir das 18:20</t>
+  </si>
+  <si>
     <t>Quarta 27/07</t>
   </si>
   <si>
     <t>Quinta 28/07</t>
   </si>
   <si>
+    <t>a partir das 18:45(pode variar de acordo com bus.. :) )</t>
+  </si>
+  <si>
     <t>Sexta 29/07</t>
   </si>
   <si>
+    <t>a partir das 18:30</t>
+  </si>
+  <si>
     <t>Sabado 30/07</t>
   </si>
   <si>
+    <t>a partir das 13:30</t>
+  </si>
+  <si>
+    <t>o dia todo</t>
+  </si>
+  <si>
+    <t>a partir das 13:00</t>
+  </si>
+  <si>
+    <t>dia todo</t>
+  </si>
+  <si>
+    <t>até o meio dia</t>
+  </si>
+  <si>
     <t>Domingo 31/07</t>
   </si>
   <si>
-    <t>a partir das 17:30</t>
-  </si>
-  <si>
-    <t>a partir das 13:30</t>
-  </si>
-  <si>
-    <t>a partir das 19:30</t>
-  </si>
-  <si>
-    <t>a partir das 18:30</t>
-  </si>
-  <si>
-    <t>até o meio dia</t>
-  </si>
-  <si>
     <t>**</t>
-  </si>
-  <si>
-    <t>o dia todo</t>
-  </si>
-  <si>
-    <t>a partir das 18:45(pode variar de acordo com bus.. :) )</t>
-  </si>
-  <si>
-    <t>dia todo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,10 +478,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -486,9 +492,9 @@
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -500,141 +506,147 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
